--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>551418.1852114166</v>
+        <v>549530.6036950141</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243.7455195843333</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>218.3774608137871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>79.3036300146486</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>184.2720459863179</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>192.4564150008914</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.2511029009961</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>9.461970681989245</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>206.618470142386</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>279.9487143447189</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>146.6736795877834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>179.7914200898994</v>
       </c>
       <c r="T10" t="n">
-        <v>41.03250833502995</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498035</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>50.85578800188416</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>54.91345479651554</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274213</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>50.13491291997229</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>92.04963353207179</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>91.93521324140089</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>157.7422992446355</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2082776889384</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>54.75190453654555</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>58.19095390327411</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>46.1871965244724</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>155.2571210980839</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>138.9281674874321</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.41221638965523</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437412</v>
       </c>
       <c r="G31" t="n">
-        <v>37.66715442651818</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>53.08597334166576</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.00952757579</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y2" t="n">
-        <v>1421.217123115521</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>648.0243074239609</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>648.0243074239609</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>648.0243074239609</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>648.0243074239609</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>393.339819218074</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>393.339819218074</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>393.339819218074</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.339819218074</v>
+        <v>541.9956044222747</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2112.324418312743</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="C5" t="n">
-        <v>1743.361901372331</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="D5" t="n">
-        <v>1385.096202765581</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="E5" t="n">
-        <v>999.3079501673367</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="F5" t="n">
-        <v>588.3220453777292</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>170.3582372759161</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>170.3582372759161</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y5" t="n">
-        <v>2112.324418312743</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.50052796378793</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>63.50052796378793</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>63.50052796378793</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>63.50052796378793</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>63.50052796378793</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>63.50052796378793</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W7" t="n">
-        <v>63.50052796378793</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X7" t="n">
-        <v>63.50052796378793</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.50052796378793</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>1228.366061714959</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1228.366061714959</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1228.366061714959</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1228.366061714959</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>817.3801569253517</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.090127584526</v>
+        <v>1618.505393690771</v>
       </c>
       <c r="X8" t="n">
-        <v>1394.624369323446</v>
+        <v>1618.505393690771</v>
       </c>
       <c r="Y8" t="n">
-        <v>1394.624369323446</v>
+        <v>1228.366061714959</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.6820060902423</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C10" t="n">
-        <v>517.7458231623355</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>546.521489166132</v>
       </c>
       <c r="T10" t="n">
-        <v>686.6820060902423</v>
+        <v>546.521489166132</v>
       </c>
       <c r="U10" t="n">
-        <v>686.6820060902423</v>
+        <v>257.3478788207</v>
       </c>
       <c r="V10" t="n">
-        <v>686.6820060902423</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W10" t="n">
-        <v>686.6820060902423</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X10" t="n">
-        <v>686.6820060902423</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.6820060902423</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>583.2726413366775</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C13" t="n">
-        <v>414.3364584087706</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D13" t="n">
-        <v>264.2198189964348</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
-        <v>264.2198189964348</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="W13" t="n">
-        <v>985.7136853104473</v>
+        <v>986.002216560967</v>
       </c>
       <c r="X13" t="n">
-        <v>985.7136853104473</v>
+        <v>986.002216560967</v>
       </c>
       <c r="Y13" t="n">
-        <v>764.9211061669172</v>
+        <v>765.2096374174369</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822476</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514088</v>
@@ -5285,43 +5285,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.3743239205529</v>
+        <v>613.801187480229</v>
       </c>
       <c r="C16" t="n">
-        <v>542.438140992646</v>
+        <v>444.8650045523221</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>294.7483651399864</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W16" t="n">
-        <v>986.0022165609664</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X16" t="n">
-        <v>893.0227887507926</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.0227887507926</v>
+        <v>795.4496523104688</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2019.424464420119</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2298.964529638816</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2503.987010421026</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>506.9302197295768</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>337.9940368016699</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5701,22 +5701,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>909.3712637033466</v>
       </c>
       <c r="W19" t="n">
-        <v>973.8210231111786</v>
+        <v>909.3712637033466</v>
       </c>
       <c r="X19" t="n">
-        <v>745.8314722131613</v>
+        <v>909.3712637033466</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>688.5786845598165</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5817,16 +5817,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5835,13 +5835,13 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>536.9315552689005</v>
+        <v>562.7003690904328</v>
       </c>
       <c r="C22" t="n">
-        <v>415.509052552801</v>
+        <v>562.7003690904328</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904328</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904328</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925224</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347409</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>985.713685310448</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X22" t="n">
-        <v>757.7241344124307</v>
+        <v>965.1414130642027</v>
       </c>
       <c r="Y22" t="n">
-        <v>536.9315552689005</v>
+        <v>744.3488339206725</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>395.2468244550149</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>395.2468244550149</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028587</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1240.217519157017</v>
+        <v>986.002216560966</v>
       </c>
       <c r="V25" t="n">
-        <v>985.5330309511296</v>
+        <v>731.317728355079</v>
       </c>
       <c r="W25" t="n">
-        <v>696.115860914169</v>
+        <v>441.9005583181183</v>
       </c>
       <c r="X25" t="n">
-        <v>468.1263100161517</v>
+        <v>441.9005583181183</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.3337308726216</v>
+        <v>395.2468244550149</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.5481934947357</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C28" t="n">
-        <v>395.5481934947358</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947357</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1342.090895711353</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1087.406407505466</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="W28" t="n">
-        <v>797.9892374685055</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="X28" t="n">
-        <v>797.9892374685055</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y28" t="n">
-        <v>577.1966583249754</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,16 +6464,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.7342676598913</v>
+        <v>695.1010933248438</v>
       </c>
       <c r="C31" t="n">
-        <v>507.5589500133552</v>
+        <v>581.9257756783077</v>
       </c>
       <c r="D31" t="n">
-        <v>413.2031758823903</v>
+        <v>487.5700015473428</v>
       </c>
       <c r="E31" t="n">
-        <v>321.0509475813678</v>
+        <v>395.4177732463206</v>
       </c>
       <c r="F31" t="n">
-        <v>229.9218653648284</v>
+        <v>304.288691029781</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1712.787274970148</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1479.419501465077</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1280.495878540561</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386972</v>
+        <v>1046.839573784971</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220507</v>
+        <v>874.6108881683245</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598913</v>
+        <v>820.9886928737127</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6835,52 +6835,52 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,13 +7108,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,7 +7175,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,13 +7345,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.78140656352421</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165113</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>128.9761921800531</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>90.50759322641571</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>96.29904972659688</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>133.6600218569654</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>56.68025977681152</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>128.7806990919555</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>47.03854340968942</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>170.9577508524917</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.0463984953032</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>172.3974568276224</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,16 +24652,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>130.9802313004935</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>113.2094758363959</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>73.62315740830265</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523571</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>110.2954233818719</v>
       </c>
     </row>
     <row r="32">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="F2" t="n">
         <v>332374.7007770524</v>
       </c>
       <c r="G2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770523</v>
       </c>
       <c r="H2" t="n">
         <v>332374.7007770524</v>
       </c>
       <c r="I2" t="n">
-        <v>332374.7007770527</v>
+        <v>332374.7007770525</v>
       </c>
       <c r="J2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770525</v>
       </c>
       <c r="K2" t="n">
         <v>345798.8167434798</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="M2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="O2" t="n">
         <v>348942.7521923205</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.549550790136829e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007369</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007503</v>
+        <v>7916.731656007416</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007416</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007451</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020402</v>
+        <v>26081.35417020405</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732795</v>
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-471801.2538015541</v>
+        <v>-471801.2538015543</v>
       </c>
       <c r="C6" t="n">
-        <v>118166.6254129903</v>
+        <v>118166.62541299</v>
       </c>
       <c r="D6" t="n">
-        <v>118166.6254129901</v>
+        <v>118166.6254129902</v>
       </c>
       <c r="E6" t="n">
-        <v>-292689.3933045678</v>
+        <v>-292786.8524305401</v>
       </c>
       <c r="F6" t="n">
-        <v>232470.6431723282</v>
+        <v>232373.1840463561</v>
       </c>
       <c r="G6" t="n">
-        <v>232470.6431723283</v>
+        <v>232373.1840463562</v>
       </c>
       <c r="H6" t="n">
-        <v>232470.6431723283</v>
+        <v>232373.1840463561</v>
       </c>
       <c r="I6" t="n">
-        <v>232470.6431723286</v>
+        <v>232373.1840463562</v>
       </c>
       <c r="J6" t="n">
-        <v>56047.42397973532</v>
+        <v>55949.96485376333</v>
       </c>
       <c r="K6" t="n">
-        <v>178926.6487402073</v>
+        <v>178908.1550022729</v>
       </c>
       <c r="L6" t="n">
-        <v>210549.2206741</v>
+        <v>210549.2206741004</v>
       </c>
       <c r="M6" t="n">
-        <v>86091.11224112996</v>
+        <v>86091.11224112989</v>
       </c>
       <c r="N6" t="n">
-        <v>220892.1274749669</v>
+        <v>220892.127474967</v>
       </c>
       <c r="O6" t="n">
         <v>220892.1274749672</v>
       </c>
       <c r="P6" t="n">
-        <v>176729.5221721215</v>
+        <v>176729.5221721214</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26768,7 +26768,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,19 +26793,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.936938487671036e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.936938487671036e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138.9883220791473</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>109.3747976563479</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>67.36156196550925</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>34.3126073657769</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>214.41963074082</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>36.68021334386518</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>135.959077340942</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>45.519173181442</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>133.8354556760761</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>202.5672891296296</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>32.35411886011954</v>
       </c>
       <c r="T10" t="n">
-        <v>184.0025971230543</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.150436919208405e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.463149601477198e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.506350599811412e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.7944393485983</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36057,10 +36057,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145243</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315248</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187477</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
